--- a/data/input_operation/OperationScenario_Component_Region.xlsx
+++ b/data/input_operation/OperationScenario_Component_Region.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20387"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mascherbauer\PycharmProjects\NewTrends\Prosumager\data\input_operation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6B0C5749-51E7-420F-B67C-0D30E13D1152}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC6CAD06-2679-4C80-812A-D7C3A05F595B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6350"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6350" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OperationScenario_Component_Reg" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
@@ -31,13 +31,13 @@
     <t>year</t>
   </si>
   <si>
-    <t>DE</t>
+    <t>AT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -871,10 +871,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
@@ -897,7 +899,7 @@
         <v>3</v>
       </c>
       <c r="C2">
-        <v>2019</v>
+        <v>2018</v>
       </c>
     </row>
   </sheetData>

--- a/data/input_operation/OperationScenario_Component_Region.xlsx
+++ b/data/input_operation/OperationScenario_Component_Region.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20387"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20389"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mascherbauer\PycharmProjects\NewTrends\Prosumager\data\input_operation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6B0C5749-51E7-420F-B67C-0D30E13D1152}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{392D344A-A97A-4475-8F60-1084D0BB6967}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6350"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OperationScenario_Component_Reg" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>ID_Region</t>
   </si>
@@ -33,11 +33,14 @@
   <si>
     <t>DE</t>
   </si>
+  <si>
+    <t>norm_outside_temperature</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -871,14 +874,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -888,8 +893,11 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -899,6 +907,9 @@
       <c r="C2">
         <v>2019</v>
       </c>
+      <c r="D2">
+        <v>-12</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/data/input_operation/OperationScenario_Component_Region.xlsx
+++ b/data/input_operation/OperationScenario_Component_Region.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mascherbauer\PycharmProjects\NewTrends\Prosumager\data\input_operation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{392D344A-A97A-4475-8F60-1084D0BB6967}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{188CC251-20D2-4F3F-AC7D-023676D15D0C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6350" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OperationScenario_Component_Reg" sheetId="1" r:id="rId1"/>
@@ -881,9 +881,9 @@
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -897,7 +897,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -908,7 +908,7 @@
         <v>2019</v>
       </c>
       <c r="D2">
-        <v>-12</v>
+        <v>-10</v>
       </c>
     </row>
   </sheetData>

--- a/data/input_operation/OperationScenario_Component_Region.xlsx
+++ b/data/input_operation/OperationScenario_Component_Region.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20389"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20391"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mascherbauer\PycharmProjects\NewTrends\Prosumager\data\input_operation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{188CC251-20D2-4F3F-AC7D-023676D15D0C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C3FC732-3A4B-4D94-9D69-400F3C3BB566}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6350" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OperationScenario_Component_Reg" sheetId="1" r:id="rId1"/>
@@ -31,10 +31,10 @@
     <t>year</t>
   </si>
   <si>
-    <t>DE</t>
+    <t>norm_outside_temperature</t>
   </si>
   <si>
-    <t>norm_outside_temperature</t>
+    <t>AT</t>
   </si>
 </sst>
 </file>
@@ -878,12 +878,12 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -894,21 +894,21 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2">
         <v>2019</v>
       </c>
       <c r="D2">
-        <v>-10</v>
+        <v>-12</v>
       </c>
     </row>
   </sheetData>

--- a/data/input_operation/OperationScenario_Component_Region.xlsx
+++ b/data/input_operation/OperationScenario_Component_Region.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mascherbauer\PycharmProjects\NewTrends\Prosumager\data\input_operation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C3FC732-3A4B-4D94-9D69-400F3C3BB566}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67805CD9-DDF5-4E43-AE06-6C6587AE2B64}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -878,7 +878,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -905,7 +905,7 @@
         <v>4</v>
       </c>
       <c r="C2">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="D2">
         <v>-12</v>

--- a/data/input_operation/OperationScenario_Component_Region.xlsx
+++ b/data/input_operation/OperationScenario_Component_Region.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mascherbauer\PycharmProjects\NewTrends\Prosumager\data\input_operation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67805CD9-DDF5-4E43-AE06-6C6587AE2B64}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91714FE1-B0C6-465A-B764-2EE7EBE78561}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -878,7 +878,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -908,7 +908,7 @@
         <v>2018</v>
       </c>
       <c r="D2">
-        <v>-12</v>
+        <v>-17.5</v>
       </c>
     </row>
   </sheetData>

--- a/data/input_operation/OperationScenario_Component_Region.xlsx
+++ b/data/input_operation/OperationScenario_Component_Region.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20389"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mascherbauer\PycharmProjects\NewTrends\Prosumager\data\input_operation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/songminyu/Documents/Code/3E/FLEX/data/input_operation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{188CC251-20D2-4F3F-AC7D-023676D15D0C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ADFB22C-EF64-A04A-8B12-6F2806A732FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6350" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5840" yWindow="-21100" windowWidth="20260" windowHeight="15280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OperationScenario_Component_Reg" sheetId="1" r:id="rId1"/>
@@ -522,48 +522,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20 % - Akzent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Akzent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Akzent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Akzent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Akzent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Akzent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Akzent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Ausgabe" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Berechnung" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Eingabe" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Ergebnis" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Erklärender Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Gut" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Notiz" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Schlecht" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
-    <cellStyle name="Überschrift" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Überschrift 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Überschrift 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Überschrift 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Überschrift 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Verknüpfte Zelle" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Warnender Text" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="Zelle überprüfen" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -579,7 +579,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -877,13 +877,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" zoomScale="188" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9.1640625" customWidth="1"/>
+    <col min="4" max="4" width="22.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -897,7 +901,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
